--- a/Code/Results/Cases/Case_1_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_184/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.030423478937046</v>
+        <v>1.066889322219749</v>
       </c>
       <c r="D2">
-        <v>1.047818613637181</v>
+        <v>1.063090312354158</v>
       </c>
       <c r="E2">
-        <v>1.041936730705691</v>
+        <v>1.07049453537711</v>
       </c>
       <c r="F2">
-        <v>1.051742277147804</v>
+        <v>1.077910778299346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05650641448828</v>
+        <v>1.050874459765621</v>
       </c>
       <c r="J2">
-        <v>1.051730804468335</v>
+        <v>1.071837020696116</v>
       </c>
       <c r="K2">
-        <v>1.058649655872883</v>
+        <v>1.06580989298125</v>
       </c>
       <c r="L2">
-        <v>1.052841174449606</v>
+        <v>1.073194222558389</v>
       </c>
       <c r="M2">
-        <v>1.06252492293037</v>
+        <v>1.080590835772935</v>
       </c>
       <c r="N2">
-        <v>1.05322438284589</v>
+        <v>1.073359152206929</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03673051988232</v>
+        <v>1.068195889829631</v>
       </c>
       <c r="D3">
-        <v>1.051682196636329</v>
+        <v>1.063897921716811</v>
       </c>
       <c r="E3">
-        <v>1.047122176178485</v>
+        <v>1.07161242045496</v>
       </c>
       <c r="F3">
-        <v>1.056793844611561</v>
+        <v>1.079001568284955</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05843970590061</v>
+        <v>1.051209767852282</v>
       </c>
       <c r="J3">
-        <v>1.05626760386379</v>
+        <v>1.07279806718227</v>
       </c>
       <c r="K3">
-        <v>1.061693891643714</v>
+        <v>1.066432463854492</v>
       </c>
       <c r="L3">
-        <v>1.057185634972984</v>
+        <v>1.074127734399043</v>
       </c>
       <c r="M3">
-        <v>1.066748167570961</v>
+        <v>1.08149874225235</v>
       </c>
       <c r="N3">
-        <v>1.057767625016864</v>
+        <v>1.074321563489327</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.040711010601466</v>
+        <v>1.06904113068135</v>
       </c>
       <c r="D4">
-        <v>1.054126029953228</v>
+        <v>1.064420370448419</v>
       </c>
       <c r="E4">
-        <v>1.050400934410258</v>
+        <v>1.072335862371256</v>
       </c>
       <c r="F4">
-        <v>1.059989443571639</v>
+        <v>1.079707549650958</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059650816119595</v>
+        <v>1.051425447990017</v>
       </c>
       <c r="J4">
-        <v>1.059127697180946</v>
+        <v>1.073419211330042</v>
       </c>
       <c r="K4">
-        <v>1.063612306414277</v>
+        <v>1.066834525618838</v>
       </c>
       <c r="L4">
-        <v>1.059926863038731</v>
+        <v>1.074731281889302</v>
       </c>
       <c r="M4">
-        <v>1.069413996237644</v>
+        <v>1.082085785593998</v>
       </c>
       <c r="N4">
-        <v>1.060631779994588</v>
+        <v>1.074943589733035</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.042361443121417</v>
+        <v>1.069396425574413</v>
       </c>
       <c r="D5">
-        <v>1.055140508599671</v>
+        <v>1.064639977293519</v>
       </c>
       <c r="E5">
-        <v>1.051761800852778</v>
+        <v>1.07264002149028</v>
       </c>
       <c r="F5">
-        <v>1.061316129192601</v>
+        <v>1.080004385206392</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060150757682523</v>
+        <v>1.05151581231297</v>
       </c>
       <c r="J5">
-        <v>1.060312766074329</v>
+        <v>1.07368017010752</v>
       </c>
       <c r="K5">
-        <v>1.064406970325981</v>
+        <v>1.067003365295397</v>
       </c>
       <c r="L5">
-        <v>1.061063240637127</v>
+        <v>1.074984895454406</v>
       </c>
       <c r="M5">
-        <v>1.070519358979035</v>
+        <v>1.082332475906763</v>
       </c>
       <c r="N5">
-        <v>1.061818531821728</v>
+        <v>1.07520491910191</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042637242322897</v>
+        <v>1.069456078621787</v>
       </c>
       <c r="D6">
-        <v>1.055310102029355</v>
+        <v>1.06467684845946</v>
       </c>
       <c r="E6">
-        <v>1.05198929125948</v>
+        <v>1.072691092597042</v>
       </c>
       <c r="F6">
-        <v>1.06153792477507</v>
+        <v>1.080054227633078</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060234169323659</v>
+        <v>1.051530966854157</v>
       </c>
       <c r="J6">
-        <v>1.060510750356412</v>
+        <v>1.073723976295479</v>
       </c>
       <c r="K6">
-        <v>1.064539716832752</v>
+        <v>1.067031703261061</v>
       </c>
       <c r="L6">
-        <v>1.061253122844735</v>
+        <v>1.075027471415113</v>
       </c>
       <c r="M6">
-        <v>1.070704072501247</v>
+        <v>1.082373890299615</v>
       </c>
       <c r="N6">
-        <v>1.062016797264202</v>
+        <v>1.07524878749968</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.040733152580964</v>
+        <v>1.069045878320275</v>
       </c>
       <c r="D7">
-        <v>1.054139635503594</v>
+        <v>1.064423304965874</v>
       </c>
       <c r="E7">
-        <v>1.050419186198629</v>
+        <v>1.072339926463862</v>
       </c>
       <c r="F7">
-        <v>1.060007235636605</v>
+        <v>1.079711515819952</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059657532123795</v>
+        <v>1.051426656650694</v>
       </c>
       <c r="J7">
-        <v>1.059143599187147</v>
+        <v>1.073422698941017</v>
       </c>
       <c r="K7">
-        <v>1.063622970666188</v>
+        <v>1.066836782397478</v>
       </c>
       <c r="L7">
-        <v>1.059942109475939</v>
+        <v>1.074734671147543</v>
       </c>
       <c r="M7">
-        <v>1.069428825624154</v>
+        <v>1.082089082284458</v>
       </c>
       <c r="N7">
-        <v>1.060647704583462</v>
+        <v>1.074947082296818</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.03257649533377</v>
+        <v>1.067330924901528</v>
       </c>
       <c r="D8">
-        <v>1.049136292606354</v>
+        <v>1.063363274435434</v>
       </c>
       <c r="E8">
-        <v>1.043705534227412</v>
+        <v>1.070872310860112</v>
       </c>
       <c r="F8">
-        <v>1.053465085735622</v>
+        <v>1.078279381804461</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057168239907316</v>
+        <v>1.050988045353611</v>
       </c>
       <c r="J8">
-        <v>1.053280150718048</v>
+        <v>1.072161960243446</v>
       </c>
       <c r="K8">
-        <v>1.059689406870317</v>
+        <v>1.066020456144844</v>
       </c>
       <c r="L8">
-        <v>1.054324324471311</v>
+        <v>1.073509810908125</v>
       </c>
       <c r="M8">
-        <v>1.063966451667602</v>
+        <v>1.080897757199548</v>
       </c>
       <c r="N8">
-        <v>1.05477592934499</v>
+        <v>1.073684553205688</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01737878333098</v>
+        <v>1.064307346325472</v>
       </c>
       <c r="D9">
-        <v>1.039863631589169</v>
+        <v>1.061494372583932</v>
       </c>
       <c r="E9">
-        <v>1.031249565486765</v>
+        <v>1.068286858939489</v>
       </c>
       <c r="F9">
-        <v>1.041340407318809</v>
+        <v>1.075757017625968</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052460342746011</v>
+        <v>1.050205283624735</v>
       </c>
       <c r="J9">
-        <v>1.042332432476753</v>
+        <v>1.069934818388327</v>
       </c>
       <c r="K9">
-        <v>1.052341441044561</v>
+        <v>1.064575967381846</v>
       </c>
       <c r="L9">
-        <v>1.043855199203592</v>
+        <v>1.071347589195151</v>
       </c>
       <c r="M9">
-        <v>1.053796572379766</v>
+        <v>1.078795133356556</v>
       </c>
       <c r="N9">
-        <v>1.043812664088072</v>
+        <v>1.071454248553677</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006609420923843</v>
+        <v>1.06229038478425</v>
       </c>
       <c r="D10">
-        <v>1.033335629156453</v>
+        <v>1.060247756251525</v>
       </c>
       <c r="E10">
-        <v>1.022465096726828</v>
+        <v>1.066563595002596</v>
       </c>
       <c r="F10">
-        <v>1.032800254979407</v>
+        <v>1.07407621235684</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04908091951645</v>
+        <v>1.049676777365642</v>
       </c>
       <c r="J10">
-        <v>1.034563238558822</v>
+        <v>1.068446224526607</v>
       </c>
       <c r="K10">
-        <v>1.047127999787123</v>
+        <v>1.063608900149022</v>
       </c>
       <c r="L10">
-        <v>1.03644024724709</v>
+        <v>1.069903433576693</v>
       </c>
       <c r="M10">
-        <v>1.046601511529412</v>
+        <v>1.077391066507114</v>
       </c>
       <c r="N10">
-        <v>1.036032437023638</v>
+        <v>1.06996354071793</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001773981114822</v>
+        <v>1.061416687445361</v>
       </c>
       <c r="D11">
-        <v>1.030416920403391</v>
+        <v>1.059707791817614</v>
       </c>
       <c r="E11">
-        <v>1.018532338692095</v>
+        <v>1.065817471407221</v>
       </c>
       <c r="F11">
-        <v>1.028979854295124</v>
+        <v>1.073348573246944</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047554267380373</v>
+        <v>1.049446340948368</v>
       </c>
       <c r="J11">
-        <v>1.031073146164557</v>
+        <v>1.067800716089269</v>
       </c>
       <c r="K11">
-        <v>1.044787144584273</v>
+        <v>1.063189175792693</v>
       </c>
       <c r="L11">
-        <v>1.03311302505479</v>
+        <v>1.069277445774797</v>
       </c>
       <c r="M11">
-        <v>1.043375192512794</v>
+        <v>1.076782526074771</v>
       </c>
       <c r="N11">
-        <v>1.032537388297854</v>
+        <v>1.069317115584569</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9999500068416302</v>
+        <v>1.061092103124385</v>
       </c>
       <c r="D12">
-        <v>1.029318017237522</v>
+        <v>1.059507198791269</v>
       </c>
       <c r="E12">
-        <v>1.017050725651052</v>
+        <v>1.065540335304793</v>
       </c>
       <c r="F12">
-        <v>1.027541059320878</v>
+        <v>1.073078318452346</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046977095179494</v>
+        <v>1.049360507142256</v>
       </c>
       <c r="J12">
-        <v>1.029756482618592</v>
+        <v>1.067560802696545</v>
       </c>
       <c r="K12">
-        <v>1.043904290013749</v>
+        <v>1.063033123867829</v>
       </c>
       <c r="L12">
-        <v>1.031858392430285</v>
+        <v>1.06904482538817</v>
       </c>
       <c r="M12">
-        <v>1.042158976667527</v>
+        <v>1.076556400067228</v>
       </c>
       <c r="N12">
-        <v>1.03121885493863</v>
+        <v>1.06907686148731</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000342551348395</v>
+        <v>1.061161730068358</v>
       </c>
       <c r="D13">
-        <v>1.02955441985744</v>
+        <v>1.059550227869004</v>
       </c>
       <c r="E13">
-        <v>1.017369502901812</v>
+        <v>1.065599781631858</v>
       </c>
       <c r="F13">
-        <v>1.027850601239894</v>
+        <v>1.073136288014896</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047101367978245</v>
+        <v>1.049378929631154</v>
       </c>
       <c r="J13">
-        <v>1.03003985282508</v>
+        <v>1.06761227142824</v>
       </c>
       <c r="K13">
-        <v>1.04409428389145</v>
+        <v>1.063066604226391</v>
       </c>
       <c r="L13">
-        <v>1.032128385506412</v>
+        <v>1.069094727831764</v>
       </c>
       <c r="M13">
-        <v>1.042420685399212</v>
+        <v>1.076604908821546</v>
       </c>
       <c r="N13">
-        <v>1.031502627563314</v>
+        <v>1.069128403310507</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001623791799124</v>
+        <v>1.061389858328867</v>
       </c>
       <c r="D14">
-        <v>1.030326391656172</v>
+        <v>1.059691211272464</v>
       </c>
       <c r="E14">
-        <v>1.018410301397012</v>
+        <v>1.065794563109287</v>
       </c>
       <c r="F14">
-        <v>1.02886133365068</v>
+        <v>1.073326233444776</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047506767912512</v>
+        <v>1.04943925078771</v>
       </c>
       <c r="J14">
-        <v>1.030964732561604</v>
+        <v>1.067780887698257</v>
       </c>
       <c r="K14">
-        <v>1.044714445088671</v>
+        <v>1.063176279507168</v>
       </c>
       <c r="L14">
-        <v>1.033009706986437</v>
+        <v>1.069258219363784</v>
       </c>
       <c r="M14">
-        <v>1.043275030368005</v>
+        <v>1.076763836210823</v>
       </c>
       <c r="N14">
-        <v>1.03242882073515</v>
+        <v>1.069297259034968</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002409449113058</v>
+        <v>1.061530408397954</v>
       </c>
       <c r="D15">
-        <v>1.030800042948799</v>
+        <v>1.059778072315814</v>
       </c>
       <c r="E15">
-        <v>1.019048768897048</v>
+        <v>1.065914575337122</v>
       </c>
       <c r="F15">
-        <v>1.029481423112253</v>
+        <v>1.073443268069169</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047755190483637</v>
+        <v>1.049476384893603</v>
       </c>
       <c r="J15">
-        <v>1.031531850154936</v>
+        <v>1.06788475876339</v>
       </c>
       <c r="K15">
-        <v>1.045094750886818</v>
+        <v>1.063243834486597</v>
       </c>
       <c r="L15">
-        <v>1.033550193597502</v>
+        <v>1.069358938506565</v>
       </c>
       <c r="M15">
-        <v>1.043799022615821</v>
+        <v>1.076861745053079</v>
       </c>
       <c r="N15">
-        <v>1.032996743700513</v>
+        <v>1.069401277608928</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006926538167068</v>
+        <v>1.062348361769948</v>
       </c>
       <c r="D16">
-        <v>1.033527317098636</v>
+        <v>1.060283588264364</v>
       </c>
       <c r="E16">
-        <v>1.022723263845321</v>
+        <v>1.066613113905437</v>
       </c>
       <c r="F16">
-        <v>1.033051111693772</v>
+        <v>1.074124506636437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049180854868079</v>
+        <v>1.049692037125011</v>
       </c>
       <c r="J16">
-        <v>1.034792097124098</v>
+        <v>1.068489044875897</v>
       </c>
       <c r="K16">
-        <v>1.047281528709414</v>
+        <v>1.063636735210312</v>
       </c>
       <c r="L16">
-        <v>1.036658505468139</v>
+        <v>1.069944964302351</v>
       </c>
       <c r="M16">
-        <v>1.046813199803492</v>
+        <v>1.077431441204434</v>
       </c>
       <c r="N16">
-        <v>1.036261620594326</v>
+        <v>1.070006421877027</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009712526505905</v>
+        <v>1.062861349113779</v>
       </c>
       <c r="D17">
-        <v>1.035212788175534</v>
+        <v>1.060600638874121</v>
       </c>
       <c r="E17">
-        <v>1.024992669040893</v>
+        <v>1.067051303806702</v>
       </c>
       <c r="F17">
-        <v>1.035256597821065</v>
+        <v>1.07455187164071</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050057780056789</v>
+        <v>1.049826884019514</v>
       </c>
       <c r="J17">
-        <v>1.036802516094633</v>
+        <v>1.068867845209413</v>
       </c>
       <c r="K17">
-        <v>1.048630348724757</v>
+        <v>1.063882929160666</v>
       </c>
       <c r="L17">
-        <v>1.038576231428791</v>
+        <v>1.070312385231409</v>
       </c>
       <c r="M17">
-        <v>1.048673455833599</v>
+        <v>1.077788642949394</v>
       </c>
       <c r="N17">
-        <v>1.038274894590398</v>
+        <v>1.070385760150466</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011321073572145</v>
+        <v>1.063160533395276</v>
       </c>
       <c r="D18">
-        <v>1.036187082131372</v>
+        <v>1.06078555263135</v>
       </c>
       <c r="E18">
-        <v>1.026304029102187</v>
+        <v>1.067306898573872</v>
       </c>
       <c r="F18">
-        <v>1.036531301460373</v>
+        <v>1.074801162012969</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050563207070486</v>
+        <v>1.049905384589472</v>
       </c>
       <c r="J18">
-        <v>1.037963102950642</v>
+        <v>1.069088702717293</v>
       </c>
       <c r="K18">
-        <v>1.049409105542402</v>
+        <v>1.064026435625292</v>
       </c>
       <c r="L18">
-        <v>1.039683658830224</v>
+        <v>1.070526632182865</v>
       </c>
       <c r="M18">
-        <v>1.049747904877754</v>
+        <v>1.077996937756744</v>
       </c>
       <c r="N18">
-        <v>1.039437129612863</v>
+        <v>1.07060693130134</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011866809982872</v>
+        <v>1.063262542077477</v>
       </c>
       <c r="D19">
-        <v>1.036517823408124</v>
+        <v>1.060848600658545</v>
       </c>
       <c r="E19">
-        <v>1.026749116069148</v>
+        <v>1.067394050856369</v>
       </c>
       <c r="F19">
-        <v>1.036963993028936</v>
+        <v>1.0748861662738</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050734532261558</v>
+        <v>1.049932125264316</v>
       </c>
       <c r="J19">
-        <v>1.038356827245301</v>
+        <v>1.069163994159734</v>
       </c>
       <c r="K19">
-        <v>1.049673310572356</v>
+        <v>1.064075351646752</v>
       </c>
       <c r="L19">
-        <v>1.040059407806952</v>
+        <v>1.070599674142273</v>
       </c>
       <c r="M19">
-        <v>1.050112498820517</v>
+        <v>1.078067951626258</v>
       </c>
       <c r="N19">
-        <v>1.039831413041182</v>
+        <v>1.070682329666265</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009415333995722</v>
+        <v>1.062806313818614</v>
       </c>
       <c r="D20">
-        <v>1.035032871118131</v>
+        <v>1.06056662405481</v>
       </c>
       <c r="E20">
-        <v>1.024750470174517</v>
+        <v>1.067004289569206</v>
       </c>
       <c r="F20">
-        <v>1.035021191399196</v>
+        <v>1.074506017818031</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049964326066963</v>
+        <v>1.049812432089755</v>
       </c>
       <c r="J20">
-        <v>1.036588073634108</v>
+        <v>1.06882721287583</v>
       </c>
       <c r="K20">
-        <v>1.048486464964939</v>
+        <v>1.063856524639455</v>
       </c>
       <c r="L20">
-        <v>1.038371639503415</v>
+        <v>1.070272971019841</v>
       </c>
       <c r="M20">
-        <v>1.048474973170547</v>
+        <v>1.077750324274525</v>
       </c>
       <c r="N20">
-        <v>1.038060147596982</v>
+        <v>1.070345070114308</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001247285041516</v>
+        <v>1.061322681764741</v>
       </c>
       <c r="D21">
-        <v>1.030099480754985</v>
+        <v>1.059649695900804</v>
       </c>
       <c r="E21">
-        <v>1.018104398849735</v>
+        <v>1.0657372046282</v>
       </c>
       <c r="F21">
-        <v>1.02856425407038</v>
+        <v>1.073270298632433</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047387671726428</v>
+        <v>1.049421494325865</v>
       </c>
       <c r="J21">
-        <v>1.030692950185045</v>
+        <v>1.067731238367732</v>
       </c>
       <c r="K21">
-        <v>1.044532198826827</v>
+        <v>1.063143986950968</v>
       </c>
       <c r="L21">
-        <v>1.032750708156453</v>
+        <v>1.069210077974128</v>
       </c>
       <c r="M21">
-        <v>1.043023948880377</v>
+        <v>1.07671703846803</v>
       </c>
       <c r="N21">
-        <v>1.032156652396441</v>
+        <v>1.069247539196699</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9959492776922193</v>
+        <v>1.060389548074708</v>
       </c>
       <c r="D22">
-        <v>1.026911706445207</v>
+        <v>1.05907303500026</v>
       </c>
       <c r="E22">
-        <v>1.013804527543063</v>
+        <v>1.064940580105136</v>
       </c>
       <c r="F22">
-        <v>1.024389624309066</v>
+        <v>1.072493483986605</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045708823129045</v>
+        <v>1.04917431048293</v>
       </c>
       <c r="J22">
-        <v>1.026868296300027</v>
+        <v>1.067041328414593</v>
       </c>
       <c r="K22">
-        <v>1.041968246772398</v>
+        <v>1.06269513184698</v>
       </c>
       <c r="L22">
-        <v>1.029107386270171</v>
+        <v>1.068541211806905</v>
       </c>
       <c r="M22">
-        <v>1.039492922328147</v>
+        <v>1.076066866679416</v>
       </c>
       <c r="N22">
-        <v>1.028326567064213</v>
+        <v>1.068556649492292</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9987739710842515</v>
+        <v>1.060884250856571</v>
       </c>
       <c r="D23">
-        <v>1.028610090400749</v>
+        <v>1.059378748393409</v>
       </c>
       <c r="E23">
-        <v>1.016095975475243</v>
+        <v>1.065362882435471</v>
       </c>
       <c r="F23">
-        <v>1.026614044373995</v>
+        <v>1.072905276163982</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046604598881093</v>
+        <v>1.049305478876582</v>
       </c>
       <c r="J23">
-        <v>1.028907508411437</v>
+        <v>1.067407141810462</v>
       </c>
       <c r="K23">
-        <v>1.043335113524064</v>
+        <v>1.062933159649137</v>
       </c>
       <c r="L23">
-        <v>1.031049584078511</v>
+        <v>1.068895846243926</v>
       </c>
       <c r="M23">
-        <v>1.041375042019014</v>
+        <v>1.076411583262415</v>
       </c>
       <c r="N23">
-        <v>1.030368675090722</v>
+        <v>1.068922982385144</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009549673256471</v>
+        <v>1.062831182000085</v>
       </c>
       <c r="D24">
-        <v>1.035114195057279</v>
+        <v>1.060581993938643</v>
       </c>
       <c r="E24">
-        <v>1.024859947463229</v>
+        <v>1.067025533260928</v>
       </c>
       <c r="F24">
-        <v>1.035127597545827</v>
+        <v>1.074526737138672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050006572612516</v>
+        <v>1.049818962768579</v>
       </c>
       <c r="J24">
-        <v>1.03668500810913</v>
+        <v>1.068845573157468</v>
       </c>
       <c r="K24">
-        <v>1.048551504464093</v>
+        <v>1.063868455997489</v>
       </c>
       <c r="L24">
-        <v>1.038464120151456</v>
+        <v>1.070290780801616</v>
       </c>
       <c r="M24">
-        <v>1.048564691634392</v>
+        <v>1.077767639004089</v>
       </c>
       <c r="N24">
-        <v>1.038157219730078</v>
+        <v>1.070363456469652</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.021413579468679</v>
+        <v>1.065089221191928</v>
       </c>
       <c r="D25">
-        <v>1.042318758253405</v>
+        <v>1.061977647597132</v>
       </c>
       <c r="E25">
-        <v>1.034549717521663</v>
+        <v>1.06895518882095</v>
       </c>
       <c r="F25">
-        <v>1.044551088847323</v>
+        <v>1.076408968784166</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05371795150241</v>
+        <v>1.050408819056365</v>
       </c>
       <c r="J25">
-        <v>1.04524117361572</v>
+        <v>1.070511256494679</v>
       </c>
       <c r="K25">
-        <v>1.054293821282168</v>
+        <v>1.064950118420838</v>
       </c>
       <c r="L25">
-        <v>1.046634364616112</v>
+        <v>1.071907040980082</v>
       </c>
       <c r="M25">
-        <v>1.05649504474389</v>
+        <v>1.079339116050998</v>
       </c>
       <c r="N25">
-        <v>1.046725535973092</v>
+        <v>1.072031505268259</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_184/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.066889322219749</v>
+        <v>1.030423478937047</v>
       </c>
       <c r="D2">
-        <v>1.063090312354158</v>
+        <v>1.047818613637182</v>
       </c>
       <c r="E2">
-        <v>1.07049453537711</v>
+        <v>1.041936730705692</v>
       </c>
       <c r="F2">
-        <v>1.077910778299346</v>
+        <v>1.051742277147805</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050874459765621</v>
+        <v>1.056506414488281</v>
       </c>
       <c r="J2">
-        <v>1.071837020696116</v>
+        <v>1.051730804468336</v>
       </c>
       <c r="K2">
-        <v>1.06580989298125</v>
+        <v>1.058649655872884</v>
       </c>
       <c r="L2">
-        <v>1.073194222558389</v>
+        <v>1.052841174449607</v>
       </c>
       <c r="M2">
-        <v>1.080590835772935</v>
+        <v>1.062524922930371</v>
       </c>
       <c r="N2">
-        <v>1.073359152206929</v>
+        <v>1.053224382845891</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.068195889829631</v>
+        <v>1.036730519882321</v>
       </c>
       <c r="D3">
-        <v>1.063897921716811</v>
+        <v>1.051682196636329</v>
       </c>
       <c r="E3">
-        <v>1.07161242045496</v>
+        <v>1.047122176178485</v>
       </c>
       <c r="F3">
-        <v>1.079001568284955</v>
+        <v>1.05679384461156</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051209767852282</v>
+        <v>1.05843970590061</v>
       </c>
       <c r="J3">
-        <v>1.07279806718227</v>
+        <v>1.05626760386379</v>
       </c>
       <c r="K3">
-        <v>1.066432463854492</v>
+        <v>1.061693891643713</v>
       </c>
       <c r="L3">
-        <v>1.074127734399043</v>
+        <v>1.057185634972984</v>
       </c>
       <c r="M3">
-        <v>1.08149874225235</v>
+        <v>1.06674816757096</v>
       </c>
       <c r="N3">
-        <v>1.074321563489327</v>
+        <v>1.057767625016864</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.06904113068135</v>
+        <v>1.040711010601466</v>
       </c>
       <c r="D4">
-        <v>1.064420370448419</v>
+        <v>1.054126029953228</v>
       </c>
       <c r="E4">
-        <v>1.072335862371256</v>
+        <v>1.050400934410257</v>
       </c>
       <c r="F4">
-        <v>1.079707549650958</v>
+        <v>1.059989443571638</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051425447990017</v>
+        <v>1.059650816119595</v>
       </c>
       <c r="J4">
-        <v>1.073419211330042</v>
+        <v>1.059127697180945</v>
       </c>
       <c r="K4">
-        <v>1.066834525618838</v>
+        <v>1.063612306414276</v>
       </c>
       <c r="L4">
-        <v>1.074731281889302</v>
+        <v>1.05992686303873</v>
       </c>
       <c r="M4">
-        <v>1.082085785593998</v>
+        <v>1.069413996237643</v>
       </c>
       <c r="N4">
-        <v>1.074943589733035</v>
+        <v>1.060631779994587</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.069396425574413</v>
+        <v>1.042361443121416</v>
       </c>
       <c r="D5">
-        <v>1.064639977293519</v>
+        <v>1.055140508599671</v>
       </c>
       <c r="E5">
-        <v>1.07264002149028</v>
+        <v>1.051761800852777</v>
       </c>
       <c r="F5">
-        <v>1.080004385206392</v>
+        <v>1.0613161291926</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05151581231297</v>
+        <v>1.060150757682523</v>
       </c>
       <c r="J5">
-        <v>1.07368017010752</v>
+        <v>1.060312766074328</v>
       </c>
       <c r="K5">
-        <v>1.067003365295397</v>
+        <v>1.064406970325981</v>
       </c>
       <c r="L5">
-        <v>1.074984895454406</v>
+        <v>1.061063240637127</v>
       </c>
       <c r="M5">
-        <v>1.082332475906763</v>
+        <v>1.070519358979035</v>
       </c>
       <c r="N5">
-        <v>1.07520491910191</v>
+        <v>1.061818531821727</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.069456078621787</v>
+        <v>1.042637242322896</v>
       </c>
       <c r="D6">
-        <v>1.06467684845946</v>
+        <v>1.055310102029355</v>
       </c>
       <c r="E6">
-        <v>1.072691092597042</v>
+        <v>1.05198929125948</v>
       </c>
       <c r="F6">
-        <v>1.080054227633078</v>
+        <v>1.06153792477507</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051530966854157</v>
+        <v>1.060234169323659</v>
       </c>
       <c r="J6">
-        <v>1.073723976295479</v>
+        <v>1.060510750356412</v>
       </c>
       <c r="K6">
-        <v>1.067031703261061</v>
+        <v>1.064539716832752</v>
       </c>
       <c r="L6">
-        <v>1.075027471415113</v>
+        <v>1.061253122844735</v>
       </c>
       <c r="M6">
-        <v>1.082373890299615</v>
+        <v>1.070704072501247</v>
       </c>
       <c r="N6">
-        <v>1.07524878749968</v>
+        <v>1.062016797264202</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069045878320275</v>
+        <v>1.040733152580965</v>
       </c>
       <c r="D7">
-        <v>1.064423304965874</v>
+        <v>1.054139635503595</v>
       </c>
       <c r="E7">
-        <v>1.072339926463862</v>
+        <v>1.05041918619863</v>
       </c>
       <c r="F7">
-        <v>1.079711515819952</v>
+        <v>1.060007235636606</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051426656650694</v>
+        <v>1.059657532123796</v>
       </c>
       <c r="J7">
-        <v>1.073422698941017</v>
+        <v>1.059143599187148</v>
       </c>
       <c r="K7">
-        <v>1.066836782397478</v>
+        <v>1.063622970666189</v>
       </c>
       <c r="L7">
-        <v>1.074734671147543</v>
+        <v>1.05994210947594</v>
       </c>
       <c r="M7">
-        <v>1.082089082284458</v>
+        <v>1.069428825624156</v>
       </c>
       <c r="N7">
-        <v>1.074947082296818</v>
+        <v>1.060647704583463</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.067330924901528</v>
+        <v>1.03257649533377</v>
       </c>
       <c r="D8">
-        <v>1.063363274435434</v>
+        <v>1.049136292606355</v>
       </c>
       <c r="E8">
-        <v>1.070872310860112</v>
+        <v>1.043705534227413</v>
       </c>
       <c r="F8">
-        <v>1.078279381804461</v>
+        <v>1.053465085735623</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050988045353611</v>
+        <v>1.057168239907317</v>
       </c>
       <c r="J8">
-        <v>1.072161960243446</v>
+        <v>1.053280150718049</v>
       </c>
       <c r="K8">
-        <v>1.066020456144844</v>
+        <v>1.059689406870318</v>
       </c>
       <c r="L8">
-        <v>1.073509810908125</v>
+        <v>1.054324324471312</v>
       </c>
       <c r="M8">
-        <v>1.080897757199548</v>
+        <v>1.063966451667602</v>
       </c>
       <c r="N8">
-        <v>1.073684553205688</v>
+        <v>1.054775929344991</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.064307346325472</v>
+        <v>1.017378783330979</v>
       </c>
       <c r="D9">
-        <v>1.061494372583932</v>
+        <v>1.039863631589168</v>
       </c>
       <c r="E9">
-        <v>1.068286858939489</v>
+        <v>1.031249565486764</v>
       </c>
       <c r="F9">
-        <v>1.075757017625968</v>
+        <v>1.041340407318808</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050205283624735</v>
+        <v>1.05246034274601</v>
       </c>
       <c r="J9">
-        <v>1.069934818388327</v>
+        <v>1.042332432476752</v>
       </c>
       <c r="K9">
-        <v>1.064575967381846</v>
+        <v>1.05234144104456</v>
       </c>
       <c r="L9">
-        <v>1.071347589195151</v>
+        <v>1.043855199203591</v>
       </c>
       <c r="M9">
-        <v>1.078795133356556</v>
+        <v>1.053796572379765</v>
       </c>
       <c r="N9">
-        <v>1.071454248553677</v>
+        <v>1.043812664088071</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.06229038478425</v>
+        <v>1.006609420923843</v>
       </c>
       <c r="D10">
-        <v>1.060247756251525</v>
+        <v>1.033335629156454</v>
       </c>
       <c r="E10">
-        <v>1.066563595002596</v>
+        <v>1.022465096726829</v>
       </c>
       <c r="F10">
-        <v>1.07407621235684</v>
+        <v>1.032800254979407</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049676777365642</v>
+        <v>1.04908091951645</v>
       </c>
       <c r="J10">
-        <v>1.068446224526607</v>
+        <v>1.034563238558822</v>
       </c>
       <c r="K10">
-        <v>1.063608900149022</v>
+        <v>1.047127999787123</v>
       </c>
       <c r="L10">
-        <v>1.069903433576693</v>
+        <v>1.03644024724709</v>
       </c>
       <c r="M10">
-        <v>1.077391066507114</v>
+        <v>1.046601511529412</v>
       </c>
       <c r="N10">
-        <v>1.06996354071793</v>
+        <v>1.036032437023637</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061416687445361</v>
+        <v>1.001773981114821</v>
       </c>
       <c r="D11">
-        <v>1.059707791817614</v>
+        <v>1.030416920403391</v>
       </c>
       <c r="E11">
-        <v>1.065817471407221</v>
+        <v>1.018532338692094</v>
       </c>
       <c r="F11">
-        <v>1.073348573246944</v>
+        <v>1.028979854295123</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049446340948368</v>
+        <v>1.047554267380373</v>
       </c>
       <c r="J11">
-        <v>1.067800716089269</v>
+        <v>1.031073146164557</v>
       </c>
       <c r="K11">
-        <v>1.063189175792693</v>
+        <v>1.044787144584272</v>
       </c>
       <c r="L11">
-        <v>1.069277445774797</v>
+        <v>1.03311302505479</v>
       </c>
       <c r="M11">
-        <v>1.076782526074771</v>
+        <v>1.043375192512793</v>
       </c>
       <c r="N11">
-        <v>1.069317115584569</v>
+        <v>1.032537388297853</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061092103124385</v>
+        <v>0.9999500068416302</v>
       </c>
       <c r="D12">
-        <v>1.059507198791269</v>
+        <v>1.029318017237522</v>
       </c>
       <c r="E12">
-        <v>1.065540335304793</v>
+        <v>1.017050725651051</v>
       </c>
       <c r="F12">
-        <v>1.073078318452346</v>
+        <v>1.027541059320878</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049360507142256</v>
+        <v>1.046977095179493</v>
       </c>
       <c r="J12">
-        <v>1.067560802696545</v>
+        <v>1.029756482618592</v>
       </c>
       <c r="K12">
-        <v>1.063033123867829</v>
+        <v>1.043904290013749</v>
       </c>
       <c r="L12">
-        <v>1.06904482538817</v>
+        <v>1.031858392430284</v>
       </c>
       <c r="M12">
-        <v>1.076556400067228</v>
+        <v>1.042158976667526</v>
       </c>
       <c r="N12">
-        <v>1.06907686148731</v>
+        <v>1.03121885493863</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061161730068358</v>
+        <v>1.000342551348393</v>
       </c>
       <c r="D13">
-        <v>1.059550227869004</v>
+        <v>1.029554419857439</v>
       </c>
       <c r="E13">
-        <v>1.065599781631858</v>
+        <v>1.017369502901811</v>
       </c>
       <c r="F13">
-        <v>1.073136288014896</v>
+        <v>1.027850601239893</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049378929631154</v>
+        <v>1.047101367978244</v>
       </c>
       <c r="J13">
-        <v>1.06761227142824</v>
+        <v>1.030039852825079</v>
       </c>
       <c r="K13">
-        <v>1.063066604226391</v>
+        <v>1.044094283891449</v>
       </c>
       <c r="L13">
-        <v>1.069094727831764</v>
+        <v>1.032128385506411</v>
       </c>
       <c r="M13">
-        <v>1.076604908821546</v>
+        <v>1.042420685399211</v>
       </c>
       <c r="N13">
-        <v>1.069128403310507</v>
+        <v>1.031502627563313</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061389858328867</v>
+        <v>1.001623791799124</v>
       </c>
       <c r="D14">
-        <v>1.059691211272464</v>
+        <v>1.030326391656173</v>
       </c>
       <c r="E14">
-        <v>1.065794563109287</v>
+        <v>1.018410301397012</v>
       </c>
       <c r="F14">
-        <v>1.073326233444776</v>
+        <v>1.028861333650681</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04943925078771</v>
+        <v>1.047506767912512</v>
       </c>
       <c r="J14">
-        <v>1.067780887698257</v>
+        <v>1.030964732561605</v>
       </c>
       <c r="K14">
-        <v>1.063176279507168</v>
+        <v>1.044714445088671</v>
       </c>
       <c r="L14">
-        <v>1.069258219363784</v>
+        <v>1.033009706986438</v>
       </c>
       <c r="M14">
-        <v>1.076763836210823</v>
+        <v>1.043275030368006</v>
       </c>
       <c r="N14">
-        <v>1.069297259034968</v>
+        <v>1.03242882073515</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061530408397954</v>
+        <v>1.002409449113057</v>
       </c>
       <c r="D15">
-        <v>1.059778072315814</v>
+        <v>1.030800042948798</v>
       </c>
       <c r="E15">
-        <v>1.065914575337122</v>
+        <v>1.019048768897047</v>
       </c>
       <c r="F15">
-        <v>1.073443268069169</v>
+        <v>1.029481423112253</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049476384893603</v>
+        <v>1.047755190483637</v>
       </c>
       <c r="J15">
-        <v>1.06788475876339</v>
+        <v>1.031531850154935</v>
       </c>
       <c r="K15">
-        <v>1.063243834486597</v>
+        <v>1.045094750886818</v>
       </c>
       <c r="L15">
-        <v>1.069358938506565</v>
+        <v>1.033550193597501</v>
       </c>
       <c r="M15">
-        <v>1.076861745053079</v>
+        <v>1.04379902261582</v>
       </c>
       <c r="N15">
-        <v>1.069401277608928</v>
+        <v>1.032996743700513</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.062348361769948</v>
+        <v>1.006926538167066</v>
       </c>
       <c r="D16">
-        <v>1.060283588264364</v>
+        <v>1.033527317098635</v>
       </c>
       <c r="E16">
-        <v>1.066613113905437</v>
+        <v>1.022723263845319</v>
       </c>
       <c r="F16">
-        <v>1.074124506636437</v>
+        <v>1.03305111169377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049692037125011</v>
+        <v>1.049180854868079</v>
       </c>
       <c r="J16">
-        <v>1.068489044875897</v>
+        <v>1.034792097124096</v>
       </c>
       <c r="K16">
-        <v>1.063636735210312</v>
+        <v>1.047281528709413</v>
       </c>
       <c r="L16">
-        <v>1.069944964302351</v>
+        <v>1.036658505468138</v>
       </c>
       <c r="M16">
-        <v>1.077431441204434</v>
+        <v>1.046813199803491</v>
       </c>
       <c r="N16">
-        <v>1.070006421877027</v>
+        <v>1.036261620594325</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.062861349113779</v>
+        <v>1.009712526505905</v>
       </c>
       <c r="D17">
-        <v>1.060600638874121</v>
+        <v>1.035212788175534</v>
       </c>
       <c r="E17">
-        <v>1.067051303806702</v>
+        <v>1.024992669040893</v>
       </c>
       <c r="F17">
-        <v>1.07455187164071</v>
+        <v>1.035256597821065</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049826884019514</v>
+        <v>1.050057780056789</v>
       </c>
       <c r="J17">
-        <v>1.068867845209413</v>
+        <v>1.036802516094633</v>
       </c>
       <c r="K17">
-        <v>1.063882929160666</v>
+        <v>1.048630348724757</v>
       </c>
       <c r="L17">
-        <v>1.070312385231409</v>
+        <v>1.03857623142879</v>
       </c>
       <c r="M17">
-        <v>1.077788642949394</v>
+        <v>1.048673455833598</v>
       </c>
       <c r="N17">
-        <v>1.070385760150466</v>
+        <v>1.038274894590398</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.063160533395276</v>
+        <v>1.011321073572145</v>
       </c>
       <c r="D18">
-        <v>1.06078555263135</v>
+        <v>1.036187082131372</v>
       </c>
       <c r="E18">
-        <v>1.067306898573872</v>
+        <v>1.026304029102187</v>
       </c>
       <c r="F18">
-        <v>1.074801162012969</v>
+        <v>1.036531301460373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049905384589472</v>
+        <v>1.050563207070486</v>
       </c>
       <c r="J18">
-        <v>1.069088702717293</v>
+        <v>1.037963102950641</v>
       </c>
       <c r="K18">
-        <v>1.064026435625292</v>
+        <v>1.049409105542401</v>
       </c>
       <c r="L18">
-        <v>1.070526632182865</v>
+        <v>1.039683658830224</v>
       </c>
       <c r="M18">
-        <v>1.077996937756744</v>
+        <v>1.049747904877753</v>
       </c>
       <c r="N18">
-        <v>1.07060693130134</v>
+        <v>1.039437129612863</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.063262542077477</v>
+        <v>1.01186680998287</v>
       </c>
       <c r="D19">
-        <v>1.060848600658545</v>
+        <v>1.036517823408123</v>
       </c>
       <c r="E19">
-        <v>1.067394050856369</v>
+        <v>1.026749116069146</v>
       </c>
       <c r="F19">
-        <v>1.0748861662738</v>
+        <v>1.036963993028935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049932125264316</v>
+        <v>1.050734532261557</v>
       </c>
       <c r="J19">
-        <v>1.069163994159734</v>
+        <v>1.0383568272453</v>
       </c>
       <c r="K19">
-        <v>1.064075351646752</v>
+        <v>1.049673310572355</v>
       </c>
       <c r="L19">
-        <v>1.070599674142273</v>
+        <v>1.04005940780695</v>
       </c>
       <c r="M19">
-        <v>1.078067951626258</v>
+        <v>1.050112498820516</v>
       </c>
       <c r="N19">
-        <v>1.070682329666265</v>
+        <v>1.039831413041181</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.062806313818614</v>
+        <v>1.009415333995722</v>
       </c>
       <c r="D20">
-        <v>1.06056662405481</v>
+        <v>1.035032871118131</v>
       </c>
       <c r="E20">
-        <v>1.067004289569206</v>
+        <v>1.024750470174517</v>
       </c>
       <c r="F20">
-        <v>1.074506017818031</v>
+        <v>1.035021191399196</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049812432089755</v>
+        <v>1.049964326066963</v>
       </c>
       <c r="J20">
-        <v>1.06882721287583</v>
+        <v>1.036588073634108</v>
       </c>
       <c r="K20">
-        <v>1.063856524639455</v>
+        <v>1.048486464964939</v>
       </c>
       <c r="L20">
-        <v>1.070272971019841</v>
+        <v>1.038371639503415</v>
       </c>
       <c r="M20">
-        <v>1.077750324274525</v>
+        <v>1.048474973170547</v>
       </c>
       <c r="N20">
-        <v>1.070345070114308</v>
+        <v>1.038060147596982</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061322681764741</v>
+        <v>1.001247285041516</v>
       </c>
       <c r="D21">
-        <v>1.059649695900804</v>
+        <v>1.030099480754985</v>
       </c>
       <c r="E21">
-        <v>1.0657372046282</v>
+        <v>1.018104398849735</v>
       </c>
       <c r="F21">
-        <v>1.073270298632433</v>
+        <v>1.02856425407038</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049421494325865</v>
+        <v>1.047387671726428</v>
       </c>
       <c r="J21">
-        <v>1.067731238367732</v>
+        <v>1.030692950185045</v>
       </c>
       <c r="K21">
-        <v>1.063143986950968</v>
+        <v>1.044532198826827</v>
       </c>
       <c r="L21">
-        <v>1.069210077974128</v>
+        <v>1.032750708156454</v>
       </c>
       <c r="M21">
-        <v>1.07671703846803</v>
+        <v>1.043023948880377</v>
       </c>
       <c r="N21">
-        <v>1.069247539196699</v>
+        <v>1.032156652396441</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060389548074708</v>
+        <v>0.9959492776922194</v>
       </c>
       <c r="D22">
-        <v>1.05907303500026</v>
+        <v>1.026911706445208</v>
       </c>
       <c r="E22">
-        <v>1.064940580105136</v>
+        <v>1.013804527543063</v>
       </c>
       <c r="F22">
-        <v>1.072493483986605</v>
+        <v>1.024389624309066</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04917431048293</v>
+        <v>1.045708823129045</v>
       </c>
       <c r="J22">
-        <v>1.067041328414593</v>
+        <v>1.026868296300027</v>
       </c>
       <c r="K22">
-        <v>1.06269513184698</v>
+        <v>1.041968246772399</v>
       </c>
       <c r="L22">
-        <v>1.068541211806905</v>
+        <v>1.029107386270172</v>
       </c>
       <c r="M22">
-        <v>1.076066866679416</v>
+        <v>1.039492922328147</v>
       </c>
       <c r="N22">
-        <v>1.068556649492292</v>
+        <v>1.028326567064213</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.060884250856571</v>
+        <v>0.9987739710842513</v>
       </c>
       <c r="D23">
-        <v>1.059378748393409</v>
+        <v>1.028610090400749</v>
       </c>
       <c r="E23">
-        <v>1.065362882435471</v>
+        <v>1.016095975475243</v>
       </c>
       <c r="F23">
-        <v>1.072905276163982</v>
+        <v>1.026614044373994</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049305478876582</v>
+        <v>1.046604598881093</v>
       </c>
       <c r="J23">
-        <v>1.067407141810462</v>
+        <v>1.028907508411437</v>
       </c>
       <c r="K23">
-        <v>1.062933159649137</v>
+        <v>1.043335113524064</v>
       </c>
       <c r="L23">
-        <v>1.068895846243926</v>
+        <v>1.031049584078511</v>
       </c>
       <c r="M23">
-        <v>1.076411583262415</v>
+        <v>1.041375042019014</v>
       </c>
       <c r="N23">
-        <v>1.068922982385144</v>
+        <v>1.030368675090722</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.062831182000085</v>
+        <v>1.009549673256471</v>
       </c>
       <c r="D24">
-        <v>1.060581993938643</v>
+        <v>1.035114195057278</v>
       </c>
       <c r="E24">
-        <v>1.067025533260928</v>
+        <v>1.024859947463229</v>
       </c>
       <c r="F24">
-        <v>1.074526737138672</v>
+        <v>1.035127597545827</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049818962768579</v>
+        <v>1.050006572612516</v>
       </c>
       <c r="J24">
-        <v>1.068845573157468</v>
+        <v>1.03668500810913</v>
       </c>
       <c r="K24">
-        <v>1.063868455997489</v>
+        <v>1.048551504464092</v>
       </c>
       <c r="L24">
-        <v>1.070290780801616</v>
+        <v>1.038464120151456</v>
       </c>
       <c r="M24">
-        <v>1.077767639004089</v>
+        <v>1.048564691634392</v>
       </c>
       <c r="N24">
-        <v>1.070363456469652</v>
+        <v>1.038157219730078</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.065089221191928</v>
+        <v>1.021413579468679</v>
       </c>
       <c r="D25">
-        <v>1.061977647597132</v>
+        <v>1.042318758253404</v>
       </c>
       <c r="E25">
-        <v>1.06895518882095</v>
+        <v>1.034549717521663</v>
       </c>
       <c r="F25">
-        <v>1.076408968784166</v>
+        <v>1.044551088847322</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050408819056365</v>
+        <v>1.053717951502409</v>
       </c>
       <c r="J25">
-        <v>1.070511256494679</v>
+        <v>1.04524117361572</v>
       </c>
       <c r="K25">
-        <v>1.064950118420838</v>
+        <v>1.054293821282168</v>
       </c>
       <c r="L25">
-        <v>1.071907040980082</v>
+        <v>1.046634364616112</v>
       </c>
       <c r="M25">
-        <v>1.079339116050998</v>
+        <v>1.056495044743889</v>
       </c>
       <c r="N25">
-        <v>1.072031505268259</v>
+        <v>1.046725535973092</v>
       </c>
     </row>
   </sheetData>
